--- a/Shady.101.bomguide.xlsx
+++ b/Shady.101.bomguide.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Shady.101" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="BOMGUIDE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="181">
   <si>
     <t>Source:</t>
   </si>
@@ -484,13 +484,100 @@
   </si>
   <si>
     <t>LED brightness, max about 1K, dim at 20K.</t>
+  </si>
+  <si>
+    <t>SHADY is Mutable Shades in THT by karltron.com/shady  v1.0  2022-05-01</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>TO-92</t>
+  </si>
+  <si>
+    <t>jumper for 10/5V</t>
+  </si>
+  <si>
+    <t>right angle</t>
+  </si>
+  <si>
+    <t>Euro Power Header</t>
+  </si>
+  <si>
+    <t>prefer shrouded</t>
+  </si>
+  <si>
+    <t>PinHeader_1x10_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>PinHeader_2x05_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>1/4W Resistor</t>
+  </si>
+  <si>
+    <t>Cap Disc Ceramic</t>
+  </si>
+  <si>
+    <t>THT:CP_Radial_D5.0mm</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Vref current supply</t>
+  </si>
+  <si>
+    <t>power cable</t>
+  </si>
+  <si>
+    <t>screws</t>
+  </si>
+  <si>
+    <t>knobs</t>
+  </si>
+  <si>
+    <t>Affix faceplate and align steps 15-18 before soldering</t>
+  </si>
+  <si>
+    <t>output dropper</t>
+  </si>
+  <si>
+    <t>opamp stabilization</t>
+  </si>
+  <si>
+    <t>power reservoir</t>
+  </si>
+  <si>
+    <t>decoupling</t>
+  </si>
+  <si>
+    <t>logic</t>
+  </si>
+  <si>
+    <t>rear board conn</t>
+  </si>
+  <si>
+    <t>front board conn</t>
+  </si>
+  <si>
+    <t>slide switch</t>
+  </si>
+  <si>
+    <t>2-pin, any colors</t>
+  </si>
+  <si>
+    <t>mono switching</t>
+  </si>
+  <si>
+    <t>Pin_1x03_P2.54mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -502,6 +589,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -521,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -529,18 +632,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -818,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:H98"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2319,429 +2461,425 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E21" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" t="s">
-        <v>131</v>
+      <c r="F21" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Shady.101.bomguide.xlsx
+++ b/Shady.101.bomguide.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="300" yWindow="860" windowWidth="28500" windowHeight="17140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="31880" yWindow="-3540" windowWidth="28500" windowHeight="17140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Shady.101" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="182">
   <si>
     <t>Source:</t>
   </si>
@@ -495,12 +495,6 @@
     <t>TO-92</t>
   </si>
   <si>
-    <t>jumper for 10/5V</t>
-  </si>
-  <si>
-    <t>right angle</t>
-  </si>
-  <si>
     <t>Euro Power Header</t>
   </si>
   <si>
@@ -537,9 +531,6 @@
     <t>knobs</t>
   </si>
   <si>
-    <t>Affix faceplate and align steps 15-18 before soldering</t>
-  </si>
-  <si>
     <t>output dropper</t>
   </si>
   <si>
@@ -564,20 +555,32 @@
     <t>slide switch</t>
   </si>
   <si>
-    <t>2-pin, any colors</t>
-  </si>
-  <si>
     <t>mono switching</t>
   </si>
   <si>
     <t>Pin_1x03_P2.54mm</t>
+  </si>
+  <si>
+    <t>tricky to maneuver in, double check they haven't shorted to the jack pins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIPOLAR 2-pin, any colors, </t>
+  </si>
+  <si>
+    <t>jumper for 10/5V, check they aren't touching switches' pins</t>
+  </si>
+  <si>
+    <t>right angle !</t>
+  </si>
+  <si>
+    <t>Affix faceplate and align steps 14-16 before soldering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -609,6 +612,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -624,7 +633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -647,6 +656,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -655,7 +675,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -677,6 +697,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2461,10 +2486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2473,7 +2498,7 @@
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2498,7 +2523,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -2515,10 +2540,10 @@
         <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -2535,10 +2560,10 @@
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2555,10 +2580,10 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2575,10 +2600,10 @@
         <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2595,10 +2620,10 @@
         <v>95</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2615,7 +2640,7 @@
         <v>150</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>151</v>
@@ -2635,10 +2660,10 @@
         <v>82</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2684,19 +2709,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2704,19 +2729,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2724,19 +2749,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2747,49 +2772,47 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2797,92 +2820,105 @@
         <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
         <v>3</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="C21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
         <v>3</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2">
-        <v>6</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="C22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Shady.101.bomguide.xlsx
+++ b/Shady.101.bomguide.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31880" yWindow="-3540" windowWidth="28500" windowHeight="17140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="28500" windowHeight="17140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Shady.101" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="190">
   <si>
     <t>Source:</t>
   </si>
@@ -480,21 +480,12 @@
     <t>U1, U2, U3</t>
   </si>
   <si>
-    <t>1K - 10K</t>
-  </si>
-  <si>
-    <t>LED brightness, max about 1K, dim at 20K.</t>
-  </si>
-  <si>
     <t>SHADY is Mutable Shades in THT by karltron.com/shady  v1.0  2022-05-01</t>
   </si>
   <si>
     <t>Step</t>
   </si>
   <si>
-    <t>TO-92</t>
-  </si>
-  <si>
     <t>Euro Power Header</t>
   </si>
   <si>
@@ -531,49 +522,82 @@
     <t>knobs</t>
   </si>
   <si>
-    <t>output dropper</t>
-  </si>
-  <si>
-    <t>opamp stabilization</t>
-  </si>
-  <si>
-    <t>power reservoir</t>
-  </si>
-  <si>
     <t>decoupling</t>
   </si>
   <si>
-    <t>logic</t>
-  </si>
-  <si>
-    <t>rear board conn</t>
-  </si>
-  <si>
-    <t>front board conn</t>
-  </si>
-  <si>
-    <t>slide switch</t>
-  </si>
-  <si>
-    <t>mono switching</t>
-  </si>
-  <si>
     <t>Pin_1x03_P2.54mm</t>
   </si>
   <si>
-    <t>tricky to maneuver in, double check they haven't shorted to the jack pins</t>
-  </si>
-  <si>
     <t xml:space="preserve">BIPOLAR 2-pin, any colors, </t>
   </si>
   <si>
-    <t>jumper for 10/5V, check they aren't touching switches' pins</t>
-  </si>
-  <si>
     <t>right angle !</t>
   </si>
   <si>
-    <t>Affix faceplate and align steps 14-16 before soldering</t>
+    <t>3K3 or 1K to 10K</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>opamp stabilization, could use 47pF</t>
+  </si>
+  <si>
+    <t>LED_THT LED_D5.0mm</t>
+  </si>
+  <si>
+    <t>logic    -   all other resistors</t>
+  </si>
+  <si>
+    <t>power reservoir.  FOLD UP</t>
+  </si>
+  <si>
+    <t>rear board connection, near power</t>
+  </si>
+  <si>
+    <t>front board connection</t>
+  </si>
+  <si>
+    <t>dry fit the pin headers to both sides to ensure they're straight before soldering</t>
+  </si>
+  <si>
+    <t>reopen boards</t>
+  </si>
+  <si>
+    <t>Affix faceplate and align steps 15-17 carefully before soldering</t>
+  </si>
+  <si>
+    <t>mono switching  PJ-3001F</t>
+  </si>
+  <si>
+    <t>LM4040-B10</t>
+  </si>
+  <si>
+    <t>TO-92  10V ref</t>
+  </si>
+  <si>
+    <t>jumper for 10/5V, check they aren't touching switches' pins. Put the jumper on to help position.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tricky to maneuver in, double check they haven't shorted to the jack pins.  Long leg square hole. </t>
+  </si>
+  <si>
+    <t>when reassembling, make sure C4 is on top and C12 is on bottom.</t>
+  </si>
+  <si>
+    <t>LED brightness,  1K is quite bright, 10K would be very dim</t>
+  </si>
+  <si>
+    <t>SPDT_Tayda "A-5111"</t>
+  </si>
+  <si>
+    <t>slide switch 1P2T, be gentle not to overheat the little pins</t>
+  </si>
+  <si>
+    <t>reopen faceplate to work on LEDs, but reassemble before soldering</t>
+  </si>
+  <si>
+    <t>output dropper, could go down to 10R</t>
   </si>
 </sst>
 </file>
@@ -619,21 +643,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -667,6 +685,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -675,7 +739,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -690,18 +754,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -985,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A66" workbookViewId="0">
       <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
@@ -2486,10 +2586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2498,19 +2598,19 @@
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2523,47 +2623,47 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>170</v>
+        <v>156</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2571,59 +2671,59 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2634,16 +2734,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2651,57 +2751,57 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>163</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>77</v>
+        <v>149</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2709,19 +2809,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>158</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2729,19 +2829,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>128</v>
+        <v>76</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2758,10 +2858,10 @@
         <v>63</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2778,145 +2878,184 @@
         <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
-        <v>6</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="B21" s="2">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>10</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="D23" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2">
         <v>3</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
-        <v>166</v>
+      <c r="E24" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A22:E22"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
